--- a/data/COMBINED_data/target.xlsx
+++ b/data/COMBINED_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tammy/Documents/CWRU/HPC/Predicting-Stock-Price/data/COMBINED_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F153B-0B22-4D4B-ACA4-565BCEBD8057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951994A-EBBD-F54F-8089-1FFDED606F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="660" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t>comments</t>
   </si>
@@ -1277,105 +1277,6 @@
   </si>
   <si>
     <t>['target is just better than Walmart', 'I want target in germany ahhh', 'Omg I love it ', 'Target will give you hpv', 'Target do you have K-pop albums!?', 'IM GOING TOMORROW', 'I wonder how cheap target is now?', 'Fabulous ', 'first', 'Pp', 'Hey @target enter germany!!!! We Need you!!!', '', '@Walmart', 'Target just loves smearing caca all over the man meat and having someone lick it clean, the hotel sheets were never the same. Target backdoors tickles', 'Shame on you guys', '@Ulta Beauty pull out of satan worshipping target!', 'yall can stay mad at target but more for me n the other target lovers ', 'Satanists', 'Hey @target can yall stop making the boys clothes look like girl clothes because y’all don’t make the girl clothes look like boy clothes!']</t>
-  </si>
-  <si>
-    <t>['@ocbusfan i knowwww', "@livftie i couldn't find the 10 and 11th seagulls", '', 'What about Europe? ', 'You suck', 'Taylor swift making millions after releasing the same song again but putting ‚ÄúTaylor‚Äôs version‚Äù after it', '@target WHAT DO YOU KNOW', 'The best song!', '@livftie if you think about it fearlestv,redtv, then midnights now sntv,and 1989! Ts11?!', 'TARGET BABES i love this securing this ', 'Save Palestine', 'Love this ', 'Target plssss come to to the uk I miss it so much', '', '', '@f87_ben just discovered he‚Äôs inbred - his mom and dad is brother and sister', 'If only target answered guest services I‚Äôve been calling for days and no answer ', '', '@n0where_kid We need this!!!', 'I am the biggest fan of dancing seagulls, they are too cute ', 'Song?', 'No', '@target WTF', '@target WHAT DO YOU KNOW?????!?!??!???', 'Target not available in my country ', '@zuanidrys  @syammzn', 'You need to sort out your vinyl selection/displays in your shops in NY &amp; Brooklyn - they are disgraceful!!', 'ITS SO PRETTY. I LOVE THE COLORRRRR. ']</t>
-  </si>
-  <si>
-    <t>['', '', '', 'Love it!', 'Impressive', 'Yummy Yum Yum  ', 'All I want to see is how you got the brownie out , after submerging it in the white chocolate ', '  ', 'The beginning of this video definitely scared me for a second lol', '', 'Cute', '@sherrenmcgregor', '', 'But what kind of dough', 'I love the pumpkin one. Can‚Äôt wait to try that one out.', 'Toothpick', 'I only wish you still had Halloween stuff up at my store. My local store has already switched over to Christmas. It‚Äôs pretty sad.', '@oftalmo_jj la voz‚Ä¶', '@adjanigrams ', 'Dammm   ', 'Target what is this voice', '', 'Wow super easy and creative!!', '@hannah_nbaesler ideas for your next baking session!', '@amandanytaylor cuteeeeee', '@twylajcohen', 'The apple ones ', "@chimdi_ihezie  we're obsessed ", 'spooky but in a good way ', 'They look delicious and are spooky!', '@ibaliwellness  love at first bite ', 'I was gonna eat those brownies :(', 'Drooling !!!', '@im.in.drumline hate when someone just grabs all the brownies i planned to eat ', '@dartzoneblasters great band name ', 'Okay amazing', '@fitmittenkitchen these snacks want to say happy halloween ', 'The apple pie looks so good and crispy', '@stitchlover052121 currently drooling ', '@target Me too']</t>
-  </si>
-  <si>
-    <t>['We wanna go to Fall Town ', '@target #falltown ', '', 'Not me thinking ‚ÄúI wanna take the rug‚Äù ', 'Fall town and loving it ', '', '@shopntarget moving to fall town as we speak ', '@sisters.ofthe.travelingbag see you there ', "@reed.margaretann we're loving the trips to fall town ", '@dt.vision  dream home ', "@target Please bring back your Young Adult hangers as Petite hangers. I ran out and I don't like the shoulders of my clothes stretching out to points.", '', 'Fall Town is not complete without @spadeandsparrows. Please bring this wine to the Michigan stores!!! ']</t>
-  </si>
-  <si>
-    <t>['As a millionaire who is living his best life.\nI was also suffering at a time and knows how hard it is to pay bills. I\'ll be giving grands each to assist the first 10 lucky people to hit me up with "GOD DID" love y\'all', 'Loving this all day everyday ', 'Lookin good! ', 'Oh go away u gerk', 'THIS IS MY WAY OF HELPING OUT THOSE FACING\nCHALLENGES THIS MONTH, I\'II SUPPORT SEVEN INDIVIDUALS WITH 6\nGRANDS WHO WRITES TO ME\nUSING THE PHRASE\n"GOD IS GOOD"', '@shopntarget the spooky vibes &gt;&gt;&gt;', '@target_onmymind  i call it "spookycore" ', "I would quickly sacrifice this time to say I'm happy I finally healed . Thank you @dr_ifiok75 home", 'Thanks so much for the share!!! This look was so fun to create!', 'Do you ship to the Uk?', '@rokthehome  you outdid yourself ', 'Trop', 'Beautiful home ', '', 'Love that target actually post Halloween on Halloween ', '@floridagirlspov  if u walk the walk u gotta talk the talk ', 'Saludos a todos ustedes √∫nanse al Nuevo Orden Mundial ILLUMINATI (N.W.O)\n y gana todas las batallas pol√≠ticas, haz crecer tu negocio y gana riqueza, gloria, poder, riquezas y protecci√≥n dondequiera que est√©s, la distancia no es una barrera, ¬°y conoce gente nueva en todo el mundo!  WhatsApp ahora Para iniciar tu proceso haz clic en el enlace de abajo \n https://wa.me/message/A2WX4VOGXJKUA1\n *FRATERNIDAD ILLUMINATI*\n +1 (352)434-5269 \n +55 19 99128-6142\n ¬°¬°¬°S√â PARTE DE ESTE *NUEVO ORDEN MUNDIAL*!!!', 'Cozy!!', 'Father', '@target.ball_  @target', 'Magnipong - Magnetic Beer Pong Kit out now for all your boating days  link in bio!  like, follow and share !!', 'We have those chairs it makes out room looks fancy ', '@chefozzyperez  the difference that chairs can make ', '']</t>
-  </si>
-  <si>
-    <t>['Happy Halloween ', 'See ya later Lewis!', 'HAPPY HALLOWEEN LEWIS!! You dropped this, you Halloween King. ', 'Happy Halloween @Target ', 'I hope there‚Äôs a Christmas Louis! ', 'I miss Lewis and hope you had a good Halloween ', 'Just throw a Santa hat on him easy', 'Is he coming back to floors next year?', 'lewis stays relevant by singing mariah carey starting nov 1?', 'AN ICON', 'Lewis but Christmas ?', 'Love u Lewis! ', "Livin' like Larry? More like Livin' like Lewis", "It's been progressive since i started working with you @THEREALEMILYVCARL", 'The Clothing Buzz on eBay likes this. .', ' Please open a shop in Italy too ', '@target Lewis erasure', '', '', '@rosesandmachetes We love Lewis', '@target please tell me this isn‚Äôt the last year to get him  I need him', '@gabrielleanais ', 'I  Lewis!  @21sunflower', 'i love u lewis', 'Lewis I love you!!! ', '@adriane_balsam  Lewis forever in our hearts ', 'It‚Äôs LEWIS', 'Will we see him next year?', 'When is the Lewis (christmas version) coming?', 'I think he‚Äôs saying ‚Äúbring @spadeandsparrows to Michigan Targets‚Äù.', 'LEWIS', 'I LOVE YOU LEWIS', 'I love Lewis ', '@ibaliwellness ', '@amy._.l.s  he loves you too ', 'lewis pls come back next year for halloween i‚Äôm gonna miss u so much', 'How I miss you Lewis ', 'LEWISSSSSS', 'LEWIS', 'My Name is Lewis ', 'LEWISSSS', 'Its been six days @target I am losing my mind WHAT DOES THIS MEAN ', '@oystersonthehalfshirt ITS BEEN NINE DAYS', 'We should make Lewis his own instagram account with all his adventures']</t>
-  </si>
-  <si>
-    <t>['@hostinggirlera first tree up wins! ', '@_agentdanny +=?', '@suckit.nerds ', '@mcgaheypaula ah love it can‚Äôt wait ', 'boring and unoriginal be real', 'Make a Lewis children‚Äôs book  and plushie for Christmas', 'You put Lewis back right now!', '@target some of the decorations are expensive I wonder if the price goes down at LA city', '@ target there are saying there are opening a target at Sylmar that‚Äôs true', 'Wishes we have a Target in Sweden! My favorite!', 'If Christmas can start on November 1st can we please get Halloween stuff no later than September 1st? ', '@kolerrrr_  and interrupt his tropical vacay? ', 'If they don‚Äôt bring back Lewis ', '@madi.chi  winter wonderland is waiting for u ', '@target okay, very true. He deserves it.', '@couponingiseasy lewis walked so st. nick could ride a sleigh ', "@hocuspocuscollector  lewis gave the tree his blessing don't worry ", '@alanna.schnorrbusch let me try to get in touch with his agent ', '@target Lewis is so kind and understanding ', '@confessionsofaraisedranch  let me check in the back to see if we have those in an extra tall ', '@hward224  he had to go back from whence he came ', 'I can hear Mariah Carey in the distance ', 'I hope you‚Äôre clearing space in the Michigan targets for @spadeandsparrows !!', 'By Lewis. ', 'Lewis is getting a job at target he here all year long ', 'Yess‚Ä¶ ', 'YES!!!! ', "@ibaliwellness  she's slowly thawing out ", '@jewels694xoxo the holiday cheer has arrived  ', 'The bird is the word.', 'ITS TIMEEEEEE !! *haha!* \n', 'Christmas  Vibes', '@diane_covarrubias_  the vibes are strong ', '@swiftstyllee  time to defrost the holiday spirit ', '@yezi_love1926 Hola, Tienes un hijo en Lafayette?', 'when are you bringing back the christmas sheets! ):', 'added my mom as a pick up person for an online order but does it not send her the stuff because she didn‚Äôt have any info so they couldn‚Äôt give her my order', 'The best colors ', 'Pa/estinians also celebrate Christmas and would have loved to celebrate this year instead of what is happening. Christmas is about the world coming together from every background for love, humanity, and Christ. ', 'A Christmas in Pa/estine ‚ÄúOn Christmas Eve there is a parade through the town. This is very important to the Christian part of the population. There are bagpipe bands in the parade, which you might not expect! Playing the bagpipes is a tradition left over from when the British army occupied the area between 1920 and 1948. People also dress up as Santa Claus and give out sweets. The streets and main square are decorated with lights.‚Äù', 'Holiday Season = Best Season ', '@pepperrewards  snow time like holiday season', 'Disabled Santa  Pathetic', "@target Will you be in Turkey too? We can't reach your products"]</t>
-  </si>
-  <si>
-    <t>['@opalhousetargetmom Would be nice if they had some good 6-11 sock options also not everyone is 4-10 #target @target', 'Reblock isRaael you did it once do it again!! be brave for the voices who need to be heard. ', 'this calls for a target run STAT ', 'Wowza! Love all the cute Christmas Decor!!', '@dreamboxbeauty  see you soon ', '@mcbridewendydee  the most wonderful decor of the year ', 'Adorable!!!', 'I love the goth aesthetic of target ', '@linvilleridgeapts  in our cutesy era ', 'FREE P@LE$T!NE ', "@spellbound76  there's no light without darkness ", 'Love', 'Veterans Day? Nothing? ', 'Trees ', '@suemariez thanksgiving is an american holiday. No where else celebrates it', "@jasmin_nyc Yes. I know that. It's Americans who are taking down their Halloween decorations to put up Christmas decorations.", 'We are waiting to hear when the Studio McGee terracotta bowl is coming back. Please and thank u @target', 'Please open your store in Turkiye @target', 'Love this so cute', '@krysthyne ', '@prinky__  be quiet', '@target u know the vibes']</t>
-  </si>
-  <si>
-    <t>["@Target Xbox starting the buy 2 get 1 free sales on Xbox... that's dope but this also shows consoles are definitely going all digital next gen lol.", 'We love Wilde &amp; Amber ', 'Wilde said THROW IT IN THE CART ', '@nikki_the_blogger  she is the BEST ', '@candyreams ', "@sam__serna  it's a good life to live ", '@burr_iam Auntie‚Äôs Baby Wilde absolutely deserves those keys, all the toys, AND if she don‚Äôt get that Fiat by Christmas‚Ä¶..', '@bethinstanow  factsss ', "@__santoria__  it's the honest truth! ", "@tyra_michelle_  i've said that so many times ", '@justshanell_  and she needed those keys ', '@poshestprice exactly ', '@adriannadianne  yes  she  did ', '@target could you please sell @pibborafi plushies in store? I‚Äôd love to buy them in store this holiday season for family great toys with a great cause!', 'Let me go to the app and pick out more stuff for Wilde. That target haul was too light.', 'Get that baby everything ', 'This is golden', 'Wilde‚Äôs squeal did it for me', 'Thats awesome! Im sure the kids will love it! ', 'I love Target so much. It‚Äôs my time to enjoy some peace while I shop and grab some Starbucks. ', "@mz._cat  that's what we're here for ", '@shopntarget  she deserves it ', 'So precious! I would have a hard time not buying her all the things!! ', 'I hate it when people take their kids through the toy aisles at Target and all you hear is "NO, you can\'t get that!" "NO, put that down!" "NO, we\'re not buying that!" and it\'s like WHAT are you doing in the toy aisles with a kid?!? ', 'Why y‚Äôall gentrify Faith‚Äôs song like that???', '', '@digitallytonyab the struggle to not immediately fill a cart is real ', '', 'It‚Äôs the holiday season and at Gonzalo Law, we are focusing on gratitude and giving! We are thankful for our AMAZING clients and the ability to be passionate and knowledgeable in the legal field. ', 'One my favorite places to shop for my toys ', '@albertadventurekids  excited to see u more often this season ', 'Not the repacks on the floor while guests on shopping ', "Hi, your Canadian website hasn't been working for 2 days, I can't buy anything or add it to the cart", 'Hi Target! I was wondering if you could start putting closed captions on your videos? It would be extremely helpful to those who are hard of hearing who want to know what deals you are offering! Thanks!']</t>
-  </si>
-  <si>
-    <t>['Christmas is here', '', '@maryharman  so so so ready ', 'One of my favorite traditions!', '@salvagesaviors  tis the season ', 'Too cute! For the pets too!', '@confessionsofaraisedranch  patiently (not so patiently) waiting for Dec. 1 ', 'Yay! Love the dog family inclusion ', 'Your website checkout is crashed.', 'I NEED THIS', 'pls unbox the wellness one for us', '@target fix your call center  bad call center help how I will call of your call center is not working on the phone?  Spanish is not working and in English neither ', 'Need me one of those ASAP', 'Fix  your Spanish call center', 'It‚Äôs the little things that count  We know how important it is to pay attention to detail. ', 'Cutest !!!!!', '@havaladeleon  which one caught your eye? ', '@zenden.ibanez one for right now, one to use in December ', "@pharaby_fable  can't forget our furry friends ", '@target oh the foodie and the pet parent one for sure', 'So this is why my dogs keep asking me if we can go to target..', '@havaladeleon perfect choices ', '@cakebabebakery woof (see u soon )', '@target is there one for cats?! I‚Äôve onto ever found one at trader joes', ' I need all of these for my new pup!! ', '@merecantrell I know you didn‚Äôt ask me but I just looked on their website and it says they have one called a snif-Snax Advent calendar with omega packed salmon and seaweed cat treats.\n\nI had a moment where I was really sad for cats so I had to make sure they were advents for them too ', '@pharaby_fable thanks! I didn‚Äôt see one when I looked quickly so this helps', '*Adds all to cart* ', "Please close the target on Clark so a real grocery store can open up in it's place.", '@pepperrewards  it will be an extra holly jolly holiday ', '@lilsmaloy  only the best for your pup  ', 'Amazing  I was just there with my wife ', 'Advent Calendar for Dogs !!!!', '@chefozzyperez  miss you already ', "@queenofconfetti_  they're purr-fect!", '12 of Wellness is speaking to us ', "@megababe  it's self care season ", '@pepperrewards same here, but im walking straight out the store with no consequences for not paying  happy holidays', 'Get apeel out of your stores', 'Por favor vengan a uruguay', 'Monten una tienda en uruguay']</t>
-  </si>
-  <si>
-    <t>['You better have those albums target‚Ä¶.', '30% off promo code is not working at checkout on app.', "It's time to change: please stop selling down", '@alissa_morrison yes, agree!!!', 'Love this idea and everything‚Äôs so cute', 'Love fredericksburg target', 'I would kill to be a Target influencer I basically live there ', 'Can you ask Santa about sensory friendly hours at the stores?', '@target can you please carry @pibborafi plushies in store?! I want to buy so many but Christmas is around the corner and it would be so much easier to buy in store  wonderful toys supporting a great cause! Please consider', 'Are those available at all Targets???', 'DIY‚Äôd today @target \nHot pink phone bag with Rhinestone chain! \nObsessed ', 'I need to see this for the men first.', 'I have too many bags. I am not going to buy one this season. However, a LELO toy is a different story. When will you get their latest products? I do not see them online.', 'This is such s cute idea', '@target claus? That‚Äôs not inclusive', 'Love these gift ideas ', 'Is this store wide or select stores .. even in places where there aren‚Äôt so nice lol', 'i love this store', '@b.nanners.ly blushing rn ', 'Love this', 'WE DO NOT LIKE THINGS LOCKED BEHIND GLASS !!!!!!!', '', '#ditchtarget', 'Thank you for locking up everyday items! I love waiting for someone to get me my tooth paste ', 'Today my sister and I was profiled at Target on 225th st by employee name Eva at self checkout. Please see my google &amp; yelp review I would like this matter addressed.', 'WHEN ARE THE PINK STANLEY COMING BACK INSTOCK ?!', 'This is my FAVE stop!!!! Sooooo cute ', '@target why does everything I order online arrive broken? ']</t>
-  </si>
-  <si>
-    <t>['So pretty!', 'Beautiful ', '@targetredbasket tablescapes are our love language ', 'I am', '@aae_ari  we saved you a seat ', '@target wish I could come ', '@pharaby_fable  honestly mesmerized by this table setup', '@target ', '', '', 'Love it!', 'Can we be a partner and offer our services? ', '', 'Did I miss the Veterans Day post?']</t>
-  </si>
-  <si>
-    <t>['@katykennedy_ these are so cute!', '', 'I know! They‚Äôve been sold out for weeks ', '@kaye.lynell.vann love!!!!', '', 'Where is the Black Friday ad ???', 'Running out! ', 'Soooo cute ', '@icaro.rocks preciso kkkkkk', '@adrianaometto nossa. Kkkkkk', 'It‚Äôs a set that I most definitely need ', 'The cutest ornaments!!', 'fave store', '@ajpam2829  oh stop ', '@targetscallingme  need the all ASAP ', "@zenden.ibanez  Bullseye can't wait to come over ", '@snickerdoodles76  trees everywhere are calling for it ', 'So cute ', '@gabitaorozcomillet', '@gabrielle_suarezoficial awww  esta chido', 'I am so glad I found these ornaments. I had to drive way out past Ma and Pa Ingels house to get them, but these were worth it!', '@adriiuuu mueroooo no lo vi', '', 'I work at target in Wilson nc I got mine love them', '@walmart you need one of these too', 'I can‚Äôt find these anywhere ', 'Trying to find it online is there an item number?? I seriously need these hahaha!!', 'In love with these!!! ', '@ourdecorativenest  holidays are going to be cuter than ever ', '@lil_rob_98 we need these', 'I wannttttttt', 'It‚Äôs very cute!!', 'Always unavailable in-store and online', '@fmrivera', '@kates.a.princess every bullseye deserves his own tree ', '', 'Got mine ', 'That‚Äôs so cute', 'This is so cute ', 'adding extra cuteness this szn ', '@target Definitely ', 'Ok I don‚Äôt need it but I want it, I‚Äôm gonna get a small Xmas tree for this ']</t>
-  </si>
-  <si>
-    <t>['@m.o.e.d_p ', '@realtimelaundry me too', '@cmckeith55 fr', 'Let me know when they drop the new Christian line......', 'Thank you for locking up everyday items! I love waiting for someone to get me my tooth paste ', 'Is there a link to a schedule for all of this!! So fun!! Bummed i missed it this already happened', "The Sears stores are gone and Kmart in Puerto Rico is coming to Ross Dress to occupy the stores that used to be Sears. Those stores that were previously Kmart need to be filled and I'm sure that Puerto Ricans would love for him to come. Target key points like the city of San Juan in the Plaza Las America Mall, Guaynabo, Caguas, and Bayam√≥n @target", 'Thank you for being so inclusive! It means a lot that you remember that people have disabilities and not everyone fits in the same mold.', "Please stop selling produce with 'Apeel' coating for the kids ", 'I went to my store today and they are on the list for lego and yet they said they did not know or have anything.  I wasted time going out my way. Just thought you might want to update your list or make sure all the stores on the list is aware.', '@target where is the Kwanzaa section? I‚Äôve been to several locations and as always it‚Äôs nonexistent.', '@target so all the stores listed will have those events on those days? It‚Äôs a very long list', '@sanjose1956 you sound ridiculous.', "@dragonpizzafanpage From a Target? What's dangerous at Target?", 'People like you', '@freedomfighter1700 stay pressed', '@sanjose1956 veteran day is depressing pride month is fun', 'Target is one of the most magical places during the holidays!!!', '', 'love itt', 'Oooo love the yellow', ' on the way!', 'Did I miss your Veterans Day post?  I didn‚Äôt see it anywhere‚Ä¶shameful', '@dommythetravelista yesssss girl so proud of you!', 'Wow, this set is cayyyuutteee', "Are you bringing back Tabitha Brown's vegan food line?", '', '@moniiilee  traveling in style ', '@jyg_xo  see you there ', 'Perioddd ', '@its_joycelyn  absolutely ', '@cassie.cassanova ', 'Lovveeeeeee!!', 'Booking that trip then headed to @target ', 'Love it .', 'On my way @target', 'Proud of you!!!!', 'I bought the scarf!', '', '', '', 'My last one cracked', 'And Tina is a South Jersey girl  Love it and so proud of you!', "It's not white, cream, grey, or pink....I'm in ", 'On my way!', 'THANKS @dommythetravelista MAJOR ', '@eejayy26  @eejayy26 see you soon ', 'Go Dom!  I love it', 'Literally so obsessed!!!', 'Oh ok with the NSU  colors ', 'Ookkaaaayyyy Dom!!!!', 'Definitely need some new travel gear. Thanks for putting us on!', '@noonecandullmysparkle  we got you ', '@emma.sheahan  you and me both ', '@nessagirl67 literally obsessed with Dom ', 'Running to target now!!', 'I LOVE THIS', '@jay.mccalla  traveling in style ', 'Wow! Great items for travel! ', '@gonzalolawllc the perfect travel companions ', "I wish the pretty green didn't get scratched so easily almost purchased both colors...LOVE LOVE LOVE THE MUSTARD YELLOW!!", 'Looks nice needs more color options']</t>
-  </si>
-  <si>
-    <t>['@gerii_rawr', '@mel.gnzlz', '@nelisaaa', '@selim46553', 'Am I the only one who is failing the Target online store?', 'How early did you start? I‚Äôm usually a big procrastinator but not this year I started my Christmas shopping back in August! Just have a couple items left &amp; im done, just waiting on Black Friday/ cyber Monday to get those items', '@vviletta', 'WE DO NOT LIKE THINGS LOCKED BEHIND GLASS !!!!!!!', '@eileenhamilton', "I won't make online orders again and then pick up, it's been a couple of months since they canceled my order and it's time they didn't give me my money back. It is not the users' fault that you do not have enough employees to comply with the orders. I demand an immediate solution and the return of my money.", '@koiddog', '@feedfifood', '@nicoleappleworm', '@seeds.to.saplings', '@extra.red', 'Awesome!  @the_ever_lovable_me', '@xfionahui', '@feedfifood', '@koiddog', '@xfionahui', '@nicoleappleworm', '@koiddog', 'Omg wait I want one!!', '@amyperez0417 !', '@breleon22 this is way cute!', '@thatwinneylife checked slippers!!', '@tongchinsub you know I am never without a pair of slippers!!!!!', '@jnaay they‚Äôre so cute!!!', '@leftcoastlinen omg', '@foothills.mama catch me slippin', 'Slippin around the Christmas tree @ryannlb_', 'Thank you for locking up everyday items! I love waiting for someone to get me my tooth paste ', 'Those slippers are absolutely beautiful ', '@christinaswifey_2019', '@alwiseman789', '@gingerbreadk__', '@_hannah.garner_', '@gena_andy', '@youandmeplus_three', '@jordantzee', '@jessmarie016', '@mrs.heather_p', '@teeanderson01', '@teach.love.glamp', 'These are SO cute  ', 'FU AND YOUR GROOMER LGBTQ+ AGENDA', '#freepalestine', '8176, that is the number of children murdered by Israel in 50 days. I ask you to remember. Pray for the rest of the children in Gaza. Speak up for justices and the right to live. Free Palestine ', 'Free Palestine ', '', '', 'Parttyayyyy time ', '@zenden.ibanez  yasssss ', 'Wow!  I want the red, the green....love them all!', 'PLEASE OPEN IN ISTANBUL TARGET', 'Beautiful!!', '', 'Pretty Aye', 'Wow. I love all of these looks. But that red skirt ', 'i wish trying on diff outfits was this easy', "@aligneddigitaldream  it's calling your name ", 'Ordered pants for my daughter. Received a completely different item (a random shirt), and got a calloused response of "we can refund you and you can reorder". Except, I CAN\'T, BECAUSE THEY\'RE SOLD OUT.', '@thayers  if only i had a magic lightpost ', 'So nice ', '@target in a perfect world ', 'Slay ', 'Team green ', 'I guess you guys missed Veterans Day again‚Ä¶', '', 'All of the outfits are just GIVING', '@itsashleykelly  holiday parties are about to be STUNNING ', 'YAY!!! you slayyyyyed Queen', '@acityonahill  the fits we wanted AND needed ', 'Wow this is great!!!!', '@target period!', 'Loooove. ', 'Thats my friend!!!! @chelseaasoflate', 'A true queen to the game!! ', '', '@chelseaasoflate makes the best content ', 'Amazing ', 'Yeah', 'So cool. Love the styling!', '', 'The red skirttttttt!! I like how she stout it. I‚Äôm going to check it out on the app.', ' DURAAA CHELS', '@isabbf thank youuu', '@chellalizz  party szn is here ', '@diana_tena ', '@thefashionchase the color of the season ', '@chelseaasoflate slaying as always!', 'Omg!!! I love @chelseaasoflate !!! Can we get a target/ Chelsea colorful clothing collab???', 'Her hair. ']</t>
-  </si>
-  <si>
-    <t>["Can't wait to start decorating myself", 'Love this', 'Omygosh @andrearenee00 !! The vibes are just toooooooooo cute! Lemme go get my decorations!! ', 'Love that coffee mug ', 'We love our target girlie @andrearenee00 ', 'Love this. It‚Äôs so cute ', 'THIS IS HUGE!!', 'Go @andrearenee00 ', 'This reminded me I need to rack on on my Christmas candles. Headed there now! ', 'Fa la la la la lalalala', 'So cute!  so excited about the holidays', '@rosianth @bridgie416 @giovanna.parras ', '', '6 of them?! Daaaamn!', 'Love this @andrearenee00 ', 'It begins!!!!', '', "@steelebroz  it's time to go all out bestie ", '@merlynethe_spirit  decorating party this weekend? ', '@target absolutely', '@piecesofreesy raise ur hand if you love Andrea ', '@lolo.skye  read this in my singing voice ', '@maia_poppin  the perf mug does exist ', '@target yay! ', '@gabstersplace  and the best guests ', 'Are you guys discontinuing carrying non dairy @benandjerrys ? I tried ordering some today in the app and it‚Äôs no longer coming up. When I go back to my previous orders and click on a pint, it comes up as an error message', 'Yay! We love a Target and Andrea collab!! ', '@joywithjordyn  her holiday decor inspo &gt;&gt;&gt;', '@naturalle_drea  muffin man approved ', "@lauryneamanda_  you'll be prepared for the next 5 mondays now ", '@shawnacischroeder  an icon ', "@pollysla  i'll let the muffin man know ", '@mamacb29  another jolly member of team holiday spirit ', '@simplycolette_  literally counting the days ', '@confessionsofaraisedranch  idk but we trust it ', '@enatural1  she did that ', 'Freaking out over here ', '@megababe our fave countdown of the year ', '@target ', ' mola', 'Please come to Belgium ', 'Your sweatshirt?', 'Wtf is happening in your stores? Sizes now go 0, 2, 4, 6, 8, 10, 12, 14, 16, and 17. What happened to the 18? It‚Äôs already a problem you don‚Äôt go beyond that, but it seems like you failed your elementary math class.']</t>
-  </si>
-  <si>
-    <t>['Shhhhh! Don‚Äôt tell anyone so it won‚Äôt sell out.', '@target Definitely!', '@junkfoodonthego living for this flavor tbh ', '@sassybagladysarah  wait...i need more details about this chocolate bar ', "@jlcharm58 that's part of what makes it so special ", '@warnotebook  this one is perfection ', '@lickorice  my lips are sealed ', 'Needs more ginger! The hot cocoa one though ', 'It‚Äôs officially hot cocoa season ', '@megababe all day every day ', 'Yum', 'Am I the only one who enters the target store and does not load the products?', 'Ohhhh man!!!', '@julia__damico - yum', 'We had these on pancakes last week and they were AMMMMMAAAAAAZING', 'The hot cocoa is divine ', 'Definitely gotta try these!', '@vic_anderson need the hot chocolate one', '@emboppz i have the salted caramel one in my fridge i haven‚Äôt tried it yet', 'East cost needs these', "@katrinacureton_ @katrinacureton_ it's the (whipped) cream of the crop ", '@lmcsherry28 pancakes are our love language ', '@dr.cherylcarr  sublime! ', 'These look so yummy!', '@karrie538 oooh they all sound good', '@abbigship @abby.gordley what i cant wait for in the states', '@kaylita_bonita_ ', '@thatgirlintarget where do you get the hot butter rum coffee?', '@lherrera1699 target  it‚Äôs a seasonal flavor from Good &amp; Gather ', 'Ooo peppermint sounds delicious!!', 'Yo quiero! ', '@havaladeleon taking the flavor game to a whole new level ', 'We need this i  the netherlands', 'Yum!!', 'Hot cocoa is like Chocolate mousse', 'The gingerbread has a hold on me right now haha', '@sequoiavictoria gingerbread is whipping up a storm over here ', '@target ', 'Will you be restocking? Target in Hicksville only has 2 flavors', 'Will there be dairy free flavors this year? ', 'My kids love the hot cocoa!  It‚Äôs delish!']</t>
-  </si>
-  <si>
-    <t>['I keep getting sucked back into target with these ads, target help a girl out like I‚Äôm going broke', 'Not impressed and very little Christmas items compared to the past few years', 'The aesthetic ', '@kimchi_and_miso2  look how ugly this is‚Ä¶', "It's so good", 'Am I the only one who enters the target store and does not load the products?', 'Colorful and very Christmas!!! What stocking stuffer items do you have @target ?', 'Wow, it‚Äôs actually so ugly!', 'Love it all!!!', 'I loooove this', 'Now come and do the same video in the Atlanta stores.', 'That shade of green!', 'i may need all of it which is a problem', '', 'Nope.. sorry', 'Beautiful. I‚Äôve been waiting two months for my orders to arrive. Excellent service. ', "@awalkdownmainstreet  it's that subtle but elegant style ", '@_katybea perfection really ', '@thayers a problem you only need a cart to fix ', '@target ', 'Tis the season, love the spirit!', '@morphebrushes  decking the halls over here ', 'Brb matching my sweats with my holiday decor', 'Yuck.', "@target twist my arm! i'm there!", 'The season ', 'What happened to Wonderland ?', '@clairebowmanofficial', '@fruitoftheloom love this for you ', 'Love!  purchased 3 of the neutral / brown flocked ornaments but waiting for y‚Äôall to restock so I can purchase 1 more !!!', '@bsbernal']</t>
-  </si>
-  <si>
-    <t>['  ', 'That  bag  caught my eye! ', "It's hard to pick a favorite  I love how all the gifts are tea towel wrap-able!", '', 'When will the Threshold/Studio McGee cross base bowl be re-released?', 'The most wonderful time of the year!', 'Shame on you target for eradicating the word Christmas from everything!', 'We have to try that wrapping technique ', 'I think you mean: Treat Yo Self!', 'Such good finds ', '@targetredbasket tis the szn... for self gifting ', '@vicecitybeads tis the season! ', '@megababe  artistry in wrapping ', '@_agentdanny hope you have the perfect gift inspo ', 'brb entering our hosting era', '@daringlydad  reading between the lines i see ', "Please stop selling produce with 'Apeel' coating ", 'Love them all', 'You know there are more holidays in December than just Christmas right ?  It‚Äôs more shameful to alienate every other religious holiday to celebrate only Christmas‚Ä¶', 'Ever heard of diy? ', 'if your talking about ‚Äúxmas‚Äù x is actually a greek letter meaning ‚Äúcristo‚Äù which means christ. :))']</t>
-  </si>
-  <si>
-    <t>['', 'I advice y‚Äôall to stop making predictions and start making good profit with @therealemilyvcarl', 'Calico critters adjacent!', 'Hilarious! I love both these collections! The stocking and coal besties are my favorites', 'Did you get the black Santa in a wheelchair chair???', 'Omg this is the best!', '', 'Love the drama ', '@shopntarget  anything for the plot ', "@trendyfavefinds we're invested ", 'Too cute! ', '@iheart_._target  glitter besties are my vibe too ', 'My tree is full of the birds this year! We need a tree topper next year @target', 'L', 'Love it', 'Sylvaniandrama dupe', 'cute', 'Living for the bird drama!!!! Give us more Target! ', 'Ok but when you share Skylar‚Äôs video ', '@cherrygirl29 ', 'we love the drama ', 'I can just imagine that a gen z social staffer had to introduce Sylvanian Drama videos to their manager  would love to see more executions ', '@target why did y‚Äôall stop selling 4X in store? /:', 'A glittery rock eeeewwww', '@target use to be my favorite store until I was discriminated on by a store manager tonight ', '@iheart2plan', 'Thx for screwing customers on the self check out.  Can\'t use it before 10am, and now you\'re limiting it to 10 items because customers "love" talking to the cashiers. Wtf? Self check out I dont have your stup!d red card shoved down my throat and wait  longer in line because the person in front cant shut the f$&amp;: up and has a million items. Guess I will be going to crappy walmart more often. Target just keeps getting worse. What this is all about has got to be theft in the self checkouts Not because customers "love" to chat to cashiers. ', '', 'It‚Äôs giving @sylvaniandrama', 'I bought my MIL some of these birds to take back to England with her. She was thrilled! They‚Äôre so cute. ', 'when does the next episode drop', '@ky.russell', '@k_simonsays omgggg', '  ready for the next episode', 'Omg I LOVE this!!!! I have Scout from 2016 and just got Chip last week ', '@serenascanzillo  the whole crew is here ', "@uopx  it's brewing at the moment ", '@target haha Aw yes they are!!!', 'Love it ', "@twotargetjunkies we're here for the drama ", 'are the birds for the millennials ', 'nah the birds are the way to go', '@_estrojen they absolutely are lol as a millennial can confirm I‚Äôm addicted ']</t>
-  </si>
-  <si>
-    <t>['OMG! Yay Dallas!  Can‚Äôt wait to take my daughter ', '@iloveglitches I live in the farmers market. They‚Äôre currently building it!', '@kimberlyrosas17 @erosas07', '@shells.padillaa let‚Äôs go', '@_jany8a yes Sunday', '@shells.padillaa I can‚Äôt let‚Äôs go Saturday', 'Where in Dallas', 'What time does it start?', 'Did someone say ‚ÄúTARGET POP-UP!?‚Äù I‚Äôve already got the husband and kids in the car! Let‚Äôs goooo! @target', 'What time in Dallas?', 'Can you guys make a mini pancake maker ?', '@target Your store bags are ruining my clothes. The logo dye transfers very quickly and does not come off after washing. Consider using a different method to print your bags.  I will have to send you my dry cleaning bills. Annoyed customer ', 'Any stops in Chicago ? ', '', '@nyehia Sunday?', '@samalabib sure! What time?', 'Where in NYC', 'Address ??', 'We love watching you fail.', '', 'Are they gonna say it‚Äôs 50% off and the actual price is higher', 'Target covers it all. Satanism to Christmas ', 'HOW CUTE ', '@luv_minkyung ', '@kkoolppi Ïò§ Ï†ïÎ≥¥Ïôï ÎΩÄÍøçÎßò„Öé„Öé', 'Come to minnesota plzzzzzzzzz!', '@things.i.bought.and.liked', 'Omg are you kidding me!!! ', 'Any Nashville Stops?', '@lagirlcosmetics magic is in the air with this one ', 'WHY ARE YOUR PROMOTIONS ALWAYS WRONG ON YOUR SITE???', 'I hope Santa brings @drinkhorton rum to target stores in 2024!!!!!!!!! Please please please!!  @krista.horton', 'The people want @drinkhorton ! @krista.horton !', 'Love ', 'I go to @target when I need stuff, need to get steps in, need time alone basically I live at @target', 'See y‚Äôall tomorrow at @dallasfarmersmarket ', '@thecafeciro ubicaci√≥n', '@marybluefairy MARY!!!', '@mimimouse how dare they do this without me?!?! ', 'Where this at', '@tancaliente  why didn‚Äôt you tell me about this?', '', '@_vibewithkendra_ ']</t>
-  </si>
-  <si>
-    <t>['@trisfully_happy Now to find out the times. Thank you so much !', '@chefozzyperez  family fun for all ', '@iloveglitches lol right!', '@trisfully_happy I just checked the Farmers Market calendar and its not on there ', '@target could us locals get details on location please ', '@iloveglitches maybe they‚Äôre changing the location  hopefully they‚Äôll announce soon', '@chocolate__tee pls visit us again soon ', 'tis the season ', '', '@carinaflamand', '@target_cheer welcome to the target wonderland ', 'What about Houston?', '', '@megababe  absolutely bestie!! ', 'Amazing!!!‚Ä¶ is it@possible in CT?!', 'Chicago suburbs please! ', 'When is go to be in los angeles California', 'Chicago????', "@cindipugmire couldn't agree more ", '@gonzalolawllc ', '', '@p9bl3 your comment is actually pretty racist.  If it was a black family or a Hispanic family this comment wouldn‚Äôt exist but because it‚Äôs a white family something has to be said?? Skin color is constantly an issue because people like you constantly make it one.', '@p9bl3 That is a racist statement in-itself.', 'We tried to go but the line was too long. ', '@cass_tastic12 this page is not available.  Where did you get the link ? Thank you !', '@trisfully_happy its on Dallas Farmers market page now for December 2nd only 11 am -7 pm as of 7:50 pm today .', '@iloveglitches you‚Äôre amazing! Thank you!', '@p9bl3 snore', '', 'So much fun I wish they did that over here', '@p9bl3 scroll through their last 5 posts and rethink this comment.  Your racism is showing.', '@shikomamontford ', '', '', 'Are they still in NY?', 'Will they let us know where this is', ' Some of the lives taken in Gaza \nRayan Abdullah Zakaria Al-Astal (0 years old)\nMian Yahya Youssef Al-Astal (0 years old)\nSalam Wael Ahmed Al-Astal (0 years old)\nZein al-Din Suleiman Moin al-Najjar (0 years old)\nYasmine Ramez Abdul Razzaq El Masry (0 years old)\nMaria Yasser Kamal Al-Masry (0 years old)\nAisha Jihad Jalal Shaheen (0 years old)\nRahima Saadi Mohammed Shaheen (0 years old)\nMohammed Mamdouh Mohammed Abu Jazar (0 years old)\nTia Mamdouh Mohammed Abu Jazar (0 years old)\nBahaa Mustafa Jamal Musa (0 years old)\nRakan Hossam Hussein Musa (0 years old)\nMusk Mahmoud Ibrahim Hegazy (0 years old)\nAhmed Mohammed Amin Nofal (0 years old)\nSon of Nabeela Nasr Mohammed Nofel (0 years old)\nMoaz Hani Mohammed Al-Aidi (0 years old)\nQais Ali Nabil Al-Aidi (0 years old)\nNabil Bilal Nabil Al-Aidi (0 years old)\nAlma Moamen Mohammed Hamdan (0 years old)\nMisk Mohammed Khalil Gouda (0 years old)\nBilal Mohammed Kamal Hamdan (0 years old)\nAbdul Rahim Ahmed Abdul Rahim Awad (0 years old)\nTahany Ezz El-Din Ahmed Zoroub (0 years old)\nMohammed Nidal Hisham Atallah (0 years old)\nMustafa Hani Essam Saqallah (0 years old)\nAbdul Raouf Ibrahim Abdul Raouf Al-Farra (0 years old)\nMohammed Omar Mustafa Shehab (0 years old)\nSarah Fathi Abdul Karim Al-Farra (0 years old)\nBilal Khaled Mohammed Sobh (0 years old)\nObaida Bilal Youssef Abu Muailiq (0 years old)\nLouay Mahmoud Saleh Al-Ajrami (0 years old)\nIvad Abdul Rahman Jihad Muheisen (0 vears old).']</t>
-  </si>
-  <si>
-    <t>["I saw the movie and the people who loved it? Are not being truthful. Asha is not a even princess, she want's her grandfather's wish granted, the songs sound worse in the theater and the animation looks unfinished ", '', '@genevievecobrda oh nooooo :( were there any good twists at all or did Disney spoilt it all already with their ads?', 'Thank you!! We had so much fun and felt special!! We appreciate all Target, Make A Wish, &amp; Disney does!!! ', 'This Genevieve person has been harassing this movie for months, don‚Äôt believe a word she is saying. You can look at countless posts where she speaks hateful things for months. Genevieve is the one not being truthful, who knows what they did to her as a child to be so hateful. Ignore her and enjoy the movie. She needs a life, badly.', '@clairetck', 'Love this incredible mission of giving back to others ', 'Don‚Äôt listen to them they have been hating on this movie for months I watched the movie myself and it was pretty good I honestly like this more than frozen I‚Äôll give it a 9/10', 'Omg lucky', "@genevievecobrda aw yes, anyone who disagrees with you simply isn't truthful. Can't find any holes in that logic. ", 'Wish  is spectacular', 'My favourite wish ', 'Why you guy keep bringing frozen in every movie argument is it because your favourite movie couldn‚Äôt surpass frozen and it couldn‚Äôt be as popular as frozen is that why?', '@genevievecobrda what do I care? I want to see the movie at ease', "@markiedude clearly you don't know who I am ", "No that's it. There's a song before Asha asks the king to grant her grandfather's wish, Ariana sounds winded struggling to sing. So the songs do get worse ", "Still a flop. There's a song before Asha asks the king to grant her grandfather's wish, Ariana sounds winded struggling to sing the pitch was too high maybe. So the songs do get worse  but the grandfather does get his wish granted playing guitar infront of people and asha becomes fairygodmother with a wand at the end. No twists, the clips gave everything away except for the 2 songs", 'It was amazing!', '–î–∏—Å–Ω–µ–π —è –æ—Ç–ø–∏—Å—ã–≤–∞—é—Å—å –æ—Ç –≤–∞—Å, –≤—ã –ø–æ–¥–¥–µ—Ä–∂–∞–µ—Ç–µ –∏–∑—Ä–∞–∏–ª—å –Ω–æ —è –Ω–µ –ø–æ–¥–¥–µ—Ä–∂—É –≤–∞—Å –Ω–∏–∫–∞–∫ –Ω–µ–±—É–¥—É —Ö–æ–¥–∏—Ç—å –Ω–∞ –≤–∞—à–∏ —Ñ–∏–ª—å–º—ã –∑–∞–∫—Ä–æ—é –ø–æ–¥–ø–∏—Å–∫—É –Ω–∞ –¥–∏–Ω–µ–π+. –°–≤–æ–±–æ–¥—É –ü–ê–õ–ï–°–¢–ò–ù–ï', 'Freedom for Palestine!', "I'm from England  and you should try the coiln the caterpillar cake best chocolate cake ever ", '@m4rtinthomas', '@jamieegmoore omg get all of these! M&amp;S is so good ', '@kittykarla_ ', 'Would be great if we in the UK could get Target products in M&amp;S, fairs fair right? ', '', '@palm20199 ', '@frostingswirls how random!', '@gnuckles and @kareninboca', '@doublemscot @claireanne12', 'I saw at target, and I almost lost my marbles because it brought me wonderful memories from London and that is so sweet very good of you Target. @target', '@scottishsarah29 I tried to convince @doublemscot to get the gingerbread bus, but she said no ', 'I just learned about these and bought all but one from my Target (we didn‚Äôt have it). They looks beautiful on my piano with my tree display ', '@sisters.ofthe.travelingbag ', '@travelwithcheray the perfect festive treats ', '@sugarpusher home comforts are the best gift ', '@rothergrams  all of them is the correct amount ', '@paxxionivy going to need more shopping bags! ', '@scottishsarah29 if it stopped at the Square, I‚Äôd get it. ', '@doublemscot ', 'Please open target in the UK', '@grossdorothy ', 'I‚Äôm in the UK.  Marks &amp; Spencer produce different tins every Christmas and I save the musical ones and use them again.', 'No chocolate coins?', '', 'OK SO WHEN WILL @target BE HITTING THE UK?!', 'Please do this every year!', 'So cute! Love M&amp;S!', '@alisonswash1972 note to self: stock up on tea &amp; cake ', '@targetredbasket tea, biscuits and jolly good vibes ', '@miss__mjm  our friends across the pond ', '@boo_and_bunny_in_the_big_apple  interest noted ', 'Adore this collection', "Our traget here doesn't them but the light up ones are pretty cool as well the globe one too. Maybe next year they will", '', '@linda.oneal.1654', 'Okay but when are we going to bring Colin the Caterpillar to @target shelves?', 'Is this at all targets!?!?', 'How come this is already sold out in my store  and there‚Äôs no shipping available online? ']</t>
-  </si>
-  <si>
-    <t>['The outfit is everything ', '@redsolesandredwine shut up', 'Love these photos', 'Can you link the garland on your mantle please? Thank you!', 'The cutest holiday photos!', '@melodyinthemaking ', '@erbaviva matching pjs season is my favorite time of year!', '@cakenknife Thank you! The chaos is worth it!', '@a__low_ sent you a DM with the info! ', 'Loving the realness', 'So cute ', 'Love the matching Pjs ', "Whoever doesn't listen  love that. Your fam is just beautiful girl", 'Target home for groomers', 'Thank you so much for your support during these difficult times. @accomplished_with_lauren @accomplished_with_lauren', 'I just saw an ad from aligreen13. Her and her husband are h*m*phobic, r*cist, big*ts. They literally tried to get all their followers to boycott your store a few months ago when you support tr*nsgendered rights. She was also caught on camera casually using a super racist slur to her own friend! Imagine how many times she says it openly. I feel like this is a bad person to have advertising your store. Please reconsider who you sponsor.', 'What?!? I need one of these delivered to my door asap!!! So good, @target! ', 'Ahahha! Yes!', '@sincerelyonyi Always have to keep it real!', '@dreamboxbeauty Matching pjs for the win! ', '@tonyamichelle26 I‚Äôm such a sucker for matching family pjs!', '@raisinghowells all the threats ', '@theproperblog literally gasped when I saw it!!', '@sugarandcharm never above bribes with kids and photos!', 'That was the most amazing target box!!', 'They all look so good!', 'So true! Lol! Beautiful family! ', "Both,instagram and reality cause it's full of you, so real and bright  with your incredible family, beautiful sweetie   ", '', 'FU AND YOUR GROOMER LGBTQ+ AGENDA', '#freepalestine', '@target locks my account day before shopping so I can‚Äôt sue any awards I have been saving because I purchased too much?  Wow!', '', 'Discover the transformative world of cryptocurrency mining and the potential for financial independence. Join our mining operations today, and witness the magic of generating Bitcoin, Bitcoin Cash, and Dogecoin worth $589,734.88 directly into your wallet - all without the need to send money or bitcoin to anyone! Allow us to guide you through this exciting journey, unlocking the possibilities of massive crypto gains.', 'Feliz Navidad!', 'Look at all those essentials from target!', '8176 children have been murdered in the genocide. free Palestine everyone deserves justice and the right to live.', 'Love the matching pajamas ', 'Omg it‚Äôs so true haha snacks are our trick ', 'What a realistic representation of the holiday season! ', '', '@gonzalolawllc it‚Äôs our favorite season!', '@celeste_wright the only way we get anything done around here ', '@ministylehacker thank you! So cozy!', '@veenacrownholm yes they are a must buy!', '@misterdividendos and to you, too! ', '@cupofmakeup20 thank you! You are too sweet! ', '@ourfamilyvine thank you! We love a good bribe ', '@roselynweaver agreed! Target is the best!', '@justatinabit agreed!! Obsessed with it all!', 'Awesome', 'Wow! I‚Äôd want to use that chest as decoration too!!! ', 'Perfect ', 'How am I ever going to top this holiday drop ever!!! ', 'It‚Äôs all so cute ', 'Best kind of surprise', '@alyssafluellen matching like yall ', 'Perfect!', 'When target comes knocking!!! ', 'me to target rn ', 'Love @target Christmas', 'So cute!! ', "@fernandmaplestyle  it's so ~elegant~", '@munchkinandmutt  the best kind of delivery ', 'So so cute!! Target is by far the best  love their Christmas decor!', 'So many good finds! ', 'Umm how do I get a big box of goodies too?! This is all so amazing!! ', '@reaganhicklen  i take my inspo from the north pole ', "@sandyalamode  it's all about the details ", '@thethirdspark  we love them sm ', '@emydye see you soon ', '@chrissymarieblog  dare we say...picture perfect? ', '@targetpops  down to the matching pjs ', '@kristinmkennedy big, red, and target shaped! ', 'Love all these amazing finds!!', 'Immediately searches for target holiday matching pjs!!! We get a set every year for the kids!!!', 'Cute family! I want a delivery like that! Love that  and the decor!!', '@oliviaskyeandco Target for the win! ', '@girlthien Literally squealed when I saw it!!', '@myflhomestead I need to stop myself from buying it all!', '@ariel201415 ', 'I‚Äôm jealous ', '@alyssafluellen  the matching PJs ', '@blustarr2  giving us all the seasonal feels ', '@sharicefindss  red &amp; green with envy ', '@target  I want it all !!', "@oliviaskyeandco we're going to need a bigger cart! ", '@fernandmaplestyle It‚Äôs definitely going to be repurposed for decor!!', '@kristinmkennedy literally gasped when I saw it at our door!', '@reaganhicklen I have to stop myself from buying all the things!', '@thethirdspark ', 'Thank you for all you give to us, not only tips but so much happiness and love,so thank you sweet friend   ', '', '', '']</t>
-  </si>
-  <si>
-    <t>['It‚Äôs no deals you guys are terrible now it‚Äôs the same price it‚Äôs been all month. ', 'You did a surprise flash sale for the PS5 and it only lasted two seconds.', '#Bidenomics', 'Nothing disclosed about this ridiculous rule prior to buying?!', 'Yeah right', 'Just came for the comments ', 'But you didn‚Äôt have deals ', 'For the pass two year @target been having a thing going on where you can get your deal for BEFORE starting November 1 up until Black Friday‚Ä¶ that is why that sign is the same price‚Ä¶. DUH They just added a Black Friday ad with the day on it‚Ä¶ now if you a RIDE-DIE FAN/ DIE HARD SHOPPER /always shop in TARGET you would have known this.Target just wanted alleviate every one from coming on the same day. Which means every products they sale needs love to be brought‚Ä¶. There is a reason why no one was there ‚Ä¶. You can get it BEFORE BLACK FRIDAY', ' ', '‚ÄúThis weeks sale will be grand, regular price everything!‚Äù', 'Came straight to the comments ', '@target you guys don‚Äôt clearly', 'FREE PALESTINE!! We need a permanent ceasefire now!!! 20K+ innocent Palestinians have been killed - over 8,000 of them CHILDREN!! From the river to the , Palestine will be FREE!!! ']</t>
-  </si>
-  <si>
-    <t>[' &gt; ', 'Lewis is everything ', 'Lewis I missed you and happy thanksgiving target ', '', 'LEWIS!!!! MY LOVE!!!!! ', '@jonnytree84', 'I think closing target on thanksgiving will help bring back Black Friday crowds', 'We  you, Lewis!', '@21sunflower ', '@kristin.eating', 'Happy Thanksgiving to you', '@charlottesilberling  Happy Thanksgiving! - Lewis', "@jennvix  Lewis 's you too", '@alex.bradley', '@lenaamastro  he never forgot about you ', '@angela_scafuri  he was always with you, in your heart ', "@amgreetings  don't forget Lewis! ", 'LEWIS', '@jennblock21 LEWIS', 'Lol!', '@target ', 'You need to have him be around all year', '', '', 'Kiding????\nKidding', 'What about Lewis eating pumpkin pie in the Featherly Friends video on TikTok? Was that cannibalism! ', 'ily bae ', '@target &amp; Lewis too of course ', 'Lewis needs to be around all year long ', '@a.nnabelleeee  no arguments from me ', '@kenkenxd2021  Lewis my love ', 'Bring him BACK', 'Lewis!!!!!!!!', '@littlegreywitch444 we  Lewis', 'I love the target dog but I would also be 100% with him being replaced with Luis', 'Lewis Halloween costume coming soon??? ', 'MORE LEWIS CONTENT!!!', "@chibi.strega  we can't get enough lewis ", "That's my boy Lewis", '', 'Please give us more Lewis lore']</t>
-  </si>
-  <si>
-    <t>['For the pass two year @target been having a thing going on where you can get your deal for BEFORE starting November 1 up until Black Friday‚Ä¶ that is why that sign is the same price‚Ä¶. DUH They just added a Black Friday ad with the day on it‚Ä¶ now if you a RIDE-DIE FAN/ DIE HARD SHOPPER /always shop in TARGET you would have known this.Target just wanted alleviate every one from coming on the same day. Which means everyone products they sale needs love to be brought‚Ä¶. There is a reason why no one was there ‚Ä¶. You can get it BEFORE BLACK FRIDAY', 'Y‚Äôall are not funny but $300 for a big flat screen is already a good deal', 'Target I‚Äôma need you to take this down asap ', ' ', 'Target out here scamming consumers ', 'Always a good idea to be financially savvy!  Happy shopping, everyone!', 'Black Fakeday', 'Imagine paying the same price on Black Friday. Thanks @target you ruined Black Friday!', '@horrormoviebbq lol there are no sales', 'Didn‚Äôt go. Good thing. No sales. Everything full price. Marketing team is soooo smart ', 'Yah mean the same sales you had before Black Friday that you made a new sign for and labeled the same price Black Friday ?', "Love shopping at Target but this old lady won't do Black Friday !!", '@zahararosario  idk if you got yours.', '@jasskillz slacking per usual ', '@zahararosario ', 'Let‚Äôs go deals ', 'Great deals ', '', '', 'I love the plaid flannel sets ', 'Love shopping at @target with the @pepperrewards app!', '', '@lealj98', '@targetwithtay  can I wear them all day?? ', '', "L'oreal", 'I‚Äôm so upset you got rid of the Christmas drink ones. I have a set for me and just had to buy my son a new set every year for his new size.', '@mlchris1', ' deals', 'Can you get imagine dragons albums', '@pri.pierre vc que queria!', 'BFFR TARGET', 'On my way!', 'Are you not thinking of opening a store in T√ºrkiye? ', 'please open up a store in canada', 'Biggest cap  in BF history', '-40% off', '@jsciarone waarom heb ik dit niet gezien', '@cheesymotherfocke was er wel hior', '', 'For the pregnant mommas like me looking to take advantage of the 30$ gift card promotion right now‚Ä¶can we make two separate transactions of 100$ worth of baby diapers in one day']</t>
-  </si>
-  <si>
-    <t>['You got me in a Christmas frenzy! ', '', 'What a cute idea!', 'loveeeee', 'Cute. But not one thing on sale.', 'Muy bonito ', '', ' @TARGET', ' best night ever ', 'Tuesday my day off ', 'Yessir', 'I love target!', 'Christmas  time is the best time to shop at Target', 'Love this!', 'Hello\nIf you are looking a free gift card like target\nI can Help you in providing that. kindly massage me.\n+1 (202) 893-9088 (Whatsapp) \nvisit www.giveaway99.com', 'Such a cute idea for a girls night!', '@jenniferamazon ideas for a cozy night in', '@rubyy._.xoxo ', '@georginahitchborn ', 'What‚Äôs up with your Black Friday deals not being real deals?', '@kristabell626 only if you are joining me!!!', 'Love ', 'My BF and I just had a target date night last night!! Bought some stuff and had a cozy night in ', 'Thats like 10k drop right there', '@cmp.bmp please do explain @target', 'Whew, to be able to shop and afford stuff in target like that.', "@epichomestuff  current status: ready for a long winter's nap ", 'Perfect ', "@targetredbasket  it's contagious  ", '@_agentdanny  also just my fave season ', 'Love it! ']</t>
-  </si>
-  <si>
-    <t>['Hi target ! I‚Äôm on day two of fraud charges on my red card and chat service tells me to call back in 24 hours again or I need confirmation code of online purchases I didn‚Äôt make ..\nAny one I can actually talk too?? What happened to Customer service?? Especially when the code that is on the charges I was told yest is known to you is fraud/ spam ????', 'Cap', 'Are these the same "deals" offered for Black Friday? Ima need to see the before and after prices', '@target encourage all delivery services to NOT throw packages on the floor. No need to damage MY purchased items because they are in a rush or they do not take their job seriously.', "@chainix Not to even mention THEY CAN'T EVEN TRACK THEIR INTERAL TRACKING NUMBERS!!!!! RIDICULOUS!!!", 'What deals?', 'FREE PALESTINE!! We need a permanent ceasefire now!!! From the river to the , Palestine will be FREE!!!        ', "You're cap asf  #cap", 'Can you make everything 30% off again PLEASE!!! The LEAST you can do', 'Make sure you look behind the sales price sign', 'Fui a Target el d√≠a de ayer en busca de comprar una batidora nueva y encuentro esta oferta y en la caja venia que era retorno de Internet. Antes de pagar pregunt√© que si no serv√≠a o no me gustaba podria regresarla o cambiarla y pagar la diferencia por otra batidora. En la caja es lo que dice que venia. No era ni siquiera la batidora que esta en la imagen de la caja estaba sucia le faltan todas las partes fui a otro tarjet serca de donde yo vivo  a regresarla me dieron un p√©simo servicio me acusaron de robo y me corrieron de la tienda me dijeron que fuera donde yo la compre originalmente. Fui donde yo la compre me dijeron que yo cambie la batidora nunca quisieron abrir la caja para revisar la batidora me trataron tan mal que me isieron llorar. Regreso a mi casa y mi esposo va a un 3er Target y le dijeron que fuera donde originalmente la compre y ah√≠ fue donde ni siquiera la quisieron abrir entonces el llamo a servicio a clientes de Target y no pudieron resolverlo. ESTO QUE ME VENDIERON ES UNA ESTAFA Y √âXIGO MI DINERO DE REGRESO APARTE ME DIFAMARON Y ACUSARON DE ROB√ì.', 'Y‚Äôall got exposed', 'The app won‚Äôt let me order online for pick up‚Ä¶.', "Yay I'm guessing it's 0% off just like Black Friday glad it's legal to scam our buyers", '', 'This is fun and harmless! People would love it!', 'Bring back the popcorn stuff. You know what I speak of @target', '@target Is something wrong with your website?? I can‚Äôt get ANY products to load- I‚Äôve tried multiple browsers, I‚Äôve cleared my browser cache, I‚Äôve tried my iPhone- nothing. I search and get blank pages with no products. ', 'She is so sweet!', '@the_monotony ', '@targetscallingme my fav ', "@lynnmundycoggin  she's the best ", '@proco26  exactly', 'I would love to have mine signed ', '@kylienoels target calls customers "guests"', 'Omg!!! ', '@carbon6smami awe! I didn‚Äôt know that! Ty!', '@amy__cleveland !!!', 'How special is this?!', 'Ontr√© @chime', '@kylienoels I actually like it better and I know cause I worked there when I was a teen ', "My target doesn't look like that at all!", '@themovieposterguy  she is the ~moment~ ', '@miss_shell_co  consider my mind lost ', 'Should have put some online for red card members.', 'If i wrote on a book i would have been kicked out.', "I love Target too Reese..It's my HAPPY PLACE", 'lies.', '@adolfo_balbin ', 'Your deals are not deals..stop deceiving us', 'Why do people have to turn a sweet post by Reese into a negative about @target Black Friday deals. Love Reese and Target.', 'Who are you', 'Awesome! Such an inspirational woman ! ', 'We LOVE the books! Frank is our fav!!', 'Love love this!! ', '@cmp.bmp Black Friday sales are over a week long so people aren‚Äôt rushed to do 1 day of shopping. It started awhile back.', 'OMG this is the cutest!!! ', '@dreamboxbeauty  raise your hand if you love Reese! ', '', 'More than 36,000 other Palestinians were also injured, 75% of them children and women']</t>
-  </si>
-  <si>
-    <t>['I love shopping at Target', 'Yay saleee', '@target looks so fun!!! Will this event be coming to Los Angeles?', '', 'Very very nice', '', 'we need this but for skincare', 'When is the wonderland coming to California?', '@thayers  agreed tbh', '@kean_sables_baron58  your visits make my day ', 'I love this idea.', '@shopntarget just having a little wonderland moment ', 'Scammers on black Friday sale !!!', 'FREE PALESTINE!! We need a permanent ceasefire now!!! 20K+ innocent Palestinians have been killed - over 8,000 of them CHILDREN!! From the river to the , Palestine will be FREE!!!        ', '@_jays_insta they just be deceiving  us', 'You deserve all the love. So does Bullseye! People just can‚Äôt stay away from that charm! ', 'Question: I have been looking for Zuru Mini Brands Books for some time at my local Targets in Chicago for my 9 yr old nephew, &amp; finally, find them! The website said it had 3 left, so 15 minutes later, I\'m at the store &amp; find ONE. I asked the sales person (basically a kid, maybe 18,?) if there were any more &amp; he said, "I have THIRTEEN I\'m getting for myself. I  can "give" you TWO!" WhIch he did, but my question is: being they are so hard to find, was it fair/ethical of him to just take all of them &amp; not even put them on tne shelf for customers paying full price? I don\'t want to be petty about this, but it\'s been nagging at me. Am I wrong??', 'Your store I just went to has like 30 closed registers and four self checkouts with a huge line down the store. Y‚Äôall need cashiers. I literally put my stuff away and left because I didn‚Äôt want to deal.', '', 'Please bring this store to London and the uk we need it over here  ', 'I need a Christmas miracle for myself from you please and thank you', '@hauz.and.co  tis the szn for self-gifting ', '@nbrown93 the burr-fect foundation for any burr-basket ', '@budgettoddlermama  burr-fection! ', '@brooks_bb1  un-burr-lieveably cute gifts ', '@ohitsme21  christmas movie crew ', "@thefirstbbb that's a wrap! ", 'So sweet ', 'making one of these for u bestie @ultabeauty', '@target lol definitely using that one', '@maddie_62712', '@soyphoenixox  doing this for all my besties this year ', '@gmtincu sorry i skipped the turkey basket this time ', '@sandy_mcdermott83  calling it this from now on ', 'Manifesting he sees this', 'I would do a blanket, fuzzy socks. Hot cocoa with a cute mug and some snacks', '@target I‚Äôll beat you to it ', '@_abi.w__', 'Obsessed with Target  ', 'That basket is super cute though ', 'Target  ', 'These Burr Baskets are the sweetest things ', '@gia.luvsss_u  tis the season for using the send option to drop hints ', "@day_creations32  it's the start of a beautiful story ", '@jsciarone dit had jij kunnen zijn', '', 'That‚Äôs easily $50', 'LIES! Target told me via chat that an item was eligible for price match; however, after placing the order they told me there was nothing they could do forcing me to spend an extra $100 and feeling scammed', '@vinovixensixx wow. so rude. it‚Äôs such a sweet thoughtful thing. u don‚Äôt have to like it but be respectful.', '@lyndz8681 I‚Äôm waiting ilin mine lol', '@alysia_yvonnne lmao me too hahaha', '@k.moore2222  another lesson in husband 101', 'We‚Äôll be throwing some Future Renew Night Cream in our Burr Basket  ', 'Christmas is here ', 'What a fun idea1', '@oliviacollins231  what are you putting in your burr basket? ', '@bensblogss  the most wonderful time of the year ', '@mrs_stonewall &amp; @htinia', 'Bring back the market pantry red velvet milk']</t>
-  </si>
-  <si>
-    <t>['@madisonazarr', '@mrssambristow lol I‚Äôve seen this should I do it? lol', '@madisonazarr lol if you want! But it looks so cute!! ', 'Ours fell apart so fast ', '@growers_row no I work for Target. All other retailers are putting Christmas stuff out earlier and earlier because people buy it, so even this year it went out a week early than last year. I think the week before Halloween we were fully set. Therefore, we sold through by now. Black Friday and cyber Monday basically left my store bare. We had tons of product before', '@desire__vanessa', 'Oh I‚Äôm grabbing this TODAY!!! ', '@jazziloves  oh my gosh', '@chayse12', '@peachtobeach30a ‚Ä¶.how‚Äôs this going??', 'Parents could water color paint first to fancy it up a bit!', '@growers_row Target had way too much inventory piled up from before, plus consumers are shopping a bit less so it makes sense to clear out the excess before restocking', '@okieatthebeach it‚Äôs so cute!!! ', 'I bought it and it doesn‚Äôt fit together properly', 'My 5 year old would be in heaven, until my 1 year old demolishes it ', '@13choosehappy', '@ali.fougerousse', '@alexcleavell', '@beckerz927 omg! Will buy for the girls tomorrow!!', '@kels_mc16', '@aubreej85 this is what I was talking bout for the girls', '@ryn.sh1212 what a fairytale date night ', '@onlyone_symmbol  creative gifts are the best ', '@cuzcopete such a great idea ', 'Totally sold out ', 'I‚Äôm getting this for myself!', 'Christmas is here ', "@_julie_anne_  sibling love at it's finest ", '@gudac13', 'I would say color it before putting it together ', 'We just got the foam one you can decorate with stickers from the dollar spot!! My daughter is going to be stoked and I don‚Äôt have to worry about the cookie mess', 'I can‚Äôt find it on the app!', '@megannkrueger !! For the girls', 'Yeah ‚Äúfor the kids‚Äù ', 'Booo sold out', '', 'I cant put together a normal gingerbread house set what makes target that I‚Äôll be able to put this together ', '@thedillpickle94 floyce would die for this and a box of markers ha', 'Yes‚Ä¶toddler. Not adult. Totally not for an adult who has a bunny as a pet.\n\n::buys Gingerbread house for me and bunny::', '@longhornbrit  as you should bestie ', '@bensblogss official countdown has started ', '@tiredmom57  mom hack 101 ', '@kaseydare08  for the adults too ', '@beauty_baby45 we believe in you ', '@brittany_oneil86 ', '@tara_suzannee']</t>
-  </si>
-  <si>
-    <t>['@thedossfamily of course! We‚Äôve got you covered ', '@theantoinettefm thank you  ', '', 'Gotta love the @target matching pjs! ', '', '', 'Got my family matching pjs!! ', '@breesha007 yay  ', 'We loveee @thelewis_show ', 'Fave family ', 'Wow ', 'Our favorite time of the year ', ' target is my happy place', '@_therealernieb_ I‚Äôm going to have to agree with you ', '@marquitahischild the best time of the year!! ', '@iamseptemberbush ', 'Ayyyy we love to see it', 'We love the Lewis family!!', '', 'I need you guys to immediately restock the spidey webquarters ', ' loooove!', '@aihjuskeypetreel yessss ', '@funwithdenimrentals Thank you ', 'How fun ', "@marquitahischild  we're all spruced up already ", '@meganzietz  truly dreaming ', '@primarycutt let the festivities begin ', '@markia_c we love them! ', '@_therealernieb_ my heart ', 'Target is great!', 'Love it ', 'I need those pajamas!', 'We love the @thelewis_show', ' That was too cute!!!!', "U all's children are growing so fast ", 'Are they Jack-o-Lanterns though?', 'Love you family', "@sugashaysweet  making memories in matching pj's ", '@funwithdenimrentals  got us feeling all the feelz ', '@simplyeverydayliving  it‚Äôs the most wonderful time of the year ', '@rap_pak ...and we got the best guests ', "@heycarterbooks they're ready for long winter naps ", '@wilkscotton  so wholesome ', '@kiaya76  icons ', '@target you totally do. She makes me want to buy all the things', 'Aaaaw Love I this!!! @target should definitely consider making y‚Äôall a ‚ÄúStaple‚Äù  I kid you not every time I speak to you ‚Ä¶your either at Target or headed there ', '@rockybaby23 Thank you ']</t>
-  </si>
-  <si>
-    <t>['@smiley_zarah_ our Fav ', '@mychalbella ', '@marthadove Thank you Martha ', '@hellonutritarian ', '@multitee Thank you ', '@ashrn05 ', '@aisha_e_henry omggg thank you for that compliment ', '@rachelamyowens Thanks sis ', '', '', '', '@rap_pak ', '@thelewis_show you‚Äôre welcome and yes  I always try &amp; start early, tomorrow I need to pick up a couple of more things. Happy Holidays to you and your beautiful family! ', 'OMG...Picture perfect...love this family. Beautiful ', '@target #blackjoy ', 'Love this so much  Target is the best ', '@thelewis_show ', 'This is everything!!!! @thelewis_show ', 'I love these photos  and moments ', 'Hire more cashiers at your locations‚Ä¶ no reason I should to wait in self checkout for 10 minutes when there‚Äôs two cashiers', ' This is why Target  is my store ! My go to for any and everything! Showcasing our favorite family! Target doesn‚Äôt realize they got lucky to get The Lewis Crew ! Love y‚Äôall ', '@thebutanclan Thank you Sally and yesssss they are ', '@marquitahischild hahah it‚Äôs a win win - Thank you so much Marquitah ', '@marquitahischild   we love you back!', ' The chaos behind the photos is too real! Yall are beautiful! Nice reminder to grab our Christmas pajamas from Target now!', 'How can I apply?', '@motivatedmomsclub ', '@turnerpartyoffive Thank you my girl ', '@thebutanclan thank you Sally and agreed ', '@renee_electronika yesssss #BlackFamilyJoy ', 'Target has my whole heart ', 'Awesome', ' and Target it is again this year for the Jammie‚Äôs ', '', '@thelewis_show totally!!!!', '', 'Yes it does and I‚Äôm looking at it right now ', '@theashleynycole too real! Lol thanks babe ', '@theashleynycole yessss run don‚Äôt walk ', '@my_eat2live yesss we agree! ', '', '', '@momcrushmonday ', '@theashwayoflife thank you sis! ', '@raffinee ', 'Free Palestine ', '@jen_rydelek  ', 'Love these photos and REALNESS! ', 'Ayeeeeee', '']</t>
-  </si>
-  <si>
-    <t>['@lmendz11 @jazmin71491 @donnnah93  can we buy these and make them ', '', 'Is‚Ä¶ is that supposed to be miss swift', 'target', 'Target is a Swiftie confirmed', 'this WILL be at our super bowl party', '@gg_delos.xo  the secret is out of the vault', 'MY BESTIE MADE THIS VIDEO', 'SHE SLAYS HARD @meagan__medina', 'Is it the one where Karma is the guy on the Chiefs ? ', 'TAYLORRRRRR', '@mona.batrouni in Taylor we trust ', '@thayers  u know i love the players (and the game) ', '@_ali_cats_  @christynah_', 'Iconic', '@mariad5785  it might be ', 'Has to be TayTay!', '@felina.privv', 'This is so cute @meagan__medina', '@taylor_peterson  it really is ', "@sarankeenangmailcom couldn't be anyone else ", '@wonderbilodeau ugh i miss you girl', '@abigail_kreig  wait...ur bestie is my bestie too ', '@target omg can we be besties ', 'Queen Tay ', '@target wait.. did target just say i‚Äôm their bestie??', '@meagan__medina I think so ', '', '@abigail_kreig we love her!!', '@meagan__medina I miss you too ', '@rae.lynn.xox i can finally get floor seats', "@highwaysandhaley  oh that's blondie all right ", '@meagan__medina YOU‚ÄôRE A STAR ', ' you‚Äôre so iconic ily @meagan__medina', '@mrs_natalieperez you guys should get this', '@mrs_natalieperez but do your team', 'Bring back the market pantry red velvet milk', '@target I love this', 'You should hold a fan contest.  Then hire me.', '@maddiemartino', 'Taylor Swift eras tour should be a ginger bread thing we can buy and make', 'Tic Tac Taylor (Swift)  ', '10% off gift cards make sure you actually it. I went and got 5% off. Now I have to call customer support', '@awangwoman  you‚Äôre in your Tay Tay era. You should definitely get this', '@seashore2345  taking notes ', 'It‚Äôs the Ms. Swift gummy bear for us  @meagan__medina ', '@heatherrr_leigh']</t>
   </si>
 </sst>
 </file>
@@ -1741,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211:XFD243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3428,269 +3329,104 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>45226</v>
-      </c>
-      <c r="B211" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>45227</v>
-      </c>
-      <c r="B212" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>45228</v>
-      </c>
-      <c r="B213" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>45229</v>
-      </c>
-      <c r="B214" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>45230</v>
-      </c>
-      <c r="B215" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="2">
-        <v>45231</v>
-      </c>
-      <c r="B216" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>45232</v>
-      </c>
-      <c r="B217" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>45233</v>
-      </c>
-      <c r="B218" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>45236</v>
-      </c>
-      <c r="B219" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>45238</v>
-      </c>
-      <c r="B220" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>45239</v>
-      </c>
-      <c r="B221" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>45240</v>
-      </c>
-      <c r="B222" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>45241</v>
-      </c>
-      <c r="B223" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>45242</v>
-      </c>
-      <c r="B224" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>45243</v>
-      </c>
-      <c r="B225" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>45244</v>
-      </c>
-      <c r="B226" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B227" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>45246</v>
-      </c>
-      <c r="B228" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>45247</v>
-      </c>
-      <c r="B229" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>45248</v>
-      </c>
-      <c r="B230" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>45249</v>
-      </c>
-      <c r="B231" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>45250</v>
-      </c>
-      <c r="B232" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>45251</v>
-      </c>
-      <c r="B233" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>45252</v>
-      </c>
-      <c r="B234" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>45253</v>
-      </c>
-      <c r="B235" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B236" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>45255</v>
-      </c>
-      <c r="B237" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>45256</v>
-      </c>
-      <c r="B238" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>45257</v>
-      </c>
-      <c r="B239" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>45258</v>
-      </c>
-      <c r="B240" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>45259</v>
-      </c>
-      <c r="B241" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>45260</v>
-      </c>
-      <c r="B242" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>45261</v>
-      </c>
-      <c r="B243" t="s">
-        <v>451</v>
-      </c>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B210">
